--- a/results/mp/logistic/corona/confidence/210/0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,253 +49,235 @@
     <t>kill</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>died</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>sc</t>
+    <t>panic</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>panic</t>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>corona</t>
   </si>
   <si>
     <t>the</t>
   </si>
   <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
     <t>.</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
 </sst>
 </file>
@@ -653,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -661,10 +643,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -722,13 +704,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7397260273972602</v>
+        <v>0.75</v>
       </c>
       <c r="C3">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D3">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -740,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -772,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7241379310344828</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -790,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K4">
-        <v>0.925</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L4">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -814,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -843,16 +825,16 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -864,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -872,13 +854,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6052631578947368</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -890,19 +872,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K6">
-        <v>0.8983050847457628</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="M6">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -914,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -922,13 +904,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5833333333333334</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -940,10 +922,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K7">
         <v>0.8947368421052632</v>
@@ -972,13 +954,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5769230769230769</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -990,19 +972,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K8">
-        <v>0.8666666666666667</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1022,13 +1004,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5405405405405406</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1040,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
       <c r="L9">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M9">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1064,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1072,13 +1054,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5294117647058824</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1090,19 +1072,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>0.839622641509434</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1114,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1122,13 +1104,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.52</v>
+        <v>0.4391534391534391</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1140,19 +1122,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L11">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1164,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1172,13 +1154,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1190,19 +1172,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>0.8224543080939948</v>
+        <v>0.828125</v>
       </c>
       <c r="L12">
-        <v>315</v>
+        <v>106</v>
       </c>
       <c r="M12">
-        <v>315</v>
+        <v>106</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1214,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>68</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1222,13 +1204,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4497354497354497</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C13">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1240,19 +1222,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K13">
-        <v>0.7948717948717948</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L13">
-        <v>31</v>
+        <v>313</v>
       </c>
       <c r="M13">
-        <v>31</v>
+        <v>313</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1264,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1272,13 +1254,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3728813559322034</v>
+        <v>0.3624031007751938</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1290,19 +1272,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>37</v>
+        <v>329</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K14">
-        <v>0.7878787878787878</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L14">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="M14">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1314,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1322,13 +1304,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3725490196078431</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1340,19 +1322,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>0.7872340425531915</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1364,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1372,13 +1354,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3565891472868217</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C16">
-        <v>184</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>184</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1390,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>332</v>
+        <v>40</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>0.78125</v>
+        <v>0.80625</v>
       </c>
       <c r="L16">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M16">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1414,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1422,13 +1404,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2933333333333333</v>
+        <v>0.2416107382550336</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1440,19 +1422,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>0.7804878048780488</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L17">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="M17">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1464,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1472,7 +1454,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2321428571428572</v>
+        <v>0.1733333333333333</v>
       </c>
       <c r="C18">
         <v>13</v>
@@ -1490,19 +1472,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>0.7777777777777778</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1522,13 +1504,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2013422818791946</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1540,19 +1522,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>119</v>
+        <v>304</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K19">
-        <v>0.7777777777777778</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L19">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M19">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1564,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1572,13 +1554,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1638888888888889</v>
+        <v>0.06746031746031746</v>
       </c>
       <c r="C20">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1590,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>301</v>
+        <v>235</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K20">
-        <v>0.7734375</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L20">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="M20">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1614,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1622,37 +1604,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.06746031746031746</v>
+        <v>0.008442380751371888</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>235</v>
+        <v>2349</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K21">
-        <v>0.7727272727272727</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1664,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1672,13 +1654,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.008706868752015479</v>
+        <v>0.006071118820468344</v>
       </c>
       <c r="C22">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>0.18</v>
@@ -1690,19 +1672,19 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>3074</v>
+        <v>2292</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>0.7586206896551724</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L22">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="M22">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1714,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1722,37 +1704,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.007585335018963337</v>
+        <v>0.005157962604771115</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="F23">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>2355</v>
+        <v>3086</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K23">
-        <v>0.7535211267605634</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L23">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="M23">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1764,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1772,37 +1754,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.007381676074685193</v>
+        <v>0.004700720777185835</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E24">
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
       <c r="F24">
-        <v>0.74</v>
+        <v>0.6</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>2286</v>
+        <v>3176</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K24">
-        <v>0.7407407407407407</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M24">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1814,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1822,49 +1804,49 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.006086142322097378</v>
+        <v>0.003698656803581857</v>
       </c>
       <c r="C25">
+        <v>19</v>
+      </c>
+      <c r="D25">
+        <v>47</v>
+      </c>
+      <c r="E25">
+        <v>0.6</v>
+      </c>
+      <c r="F25">
+        <v>0.4</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>5118</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25">
+        <v>0.723404255319149</v>
+      </c>
+      <c r="L25">
+        <v>34</v>
+      </c>
+      <c r="M25">
+        <v>34</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>13</v>
-      </c>
-      <c r="D25">
-        <v>20</v>
-      </c>
-      <c r="E25">
-        <v>0.35</v>
-      </c>
-      <c r="F25">
-        <v>0.65</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>2123</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K25">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L25">
-        <v>25</v>
-      </c>
-      <c r="M25">
-        <v>25</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1872,37 +1854,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.00582977069568597</v>
+        <v>0.003248259860788863</v>
       </c>
       <c r="C26">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E26">
-        <v>0.39</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F26">
-        <v>0.61</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>5116</v>
+        <v>4296</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K26">
-        <v>0.7142857142857143</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1914,36 +1896,12 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.004222803136939473</v>
-      </c>
-      <c r="C27">
-        <v>21</v>
-      </c>
-      <c r="D27">
-        <v>44</v>
-      </c>
-      <c r="E27">
-        <v>0.52</v>
-      </c>
-      <c r="F27">
-        <v>0.48</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>4952</v>
-      </c>
       <c r="J27" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K27">
         <v>0.7083333333333334</v>
@@ -1968,41 +1926,17 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.004178272980501393</v>
-      </c>
-      <c r="C28">
-        <v>18</v>
-      </c>
-      <c r="D28">
-        <v>38</v>
-      </c>
-      <c r="E28">
-        <v>0.53</v>
-      </c>
-      <c r="F28">
-        <v>0.47</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>4290</v>
-      </c>
       <c r="J28" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K28">
-        <v>0.6984126984126984</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L28">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="M28">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2014,45 +1948,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.004080351537978657</v>
-      </c>
-      <c r="C29">
-        <v>13</v>
-      </c>
-      <c r="D29">
-        <v>28</v>
-      </c>
-      <c r="E29">
-        <v>0.54</v>
-      </c>
-      <c r="F29">
-        <v>0.46</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>3173</v>
-      </c>
       <c r="J29" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K29">
-        <v>0.68</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L29">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M29">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2064,21 +1974,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K30">
-        <v>0.6744186046511628</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="M30">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2090,21 +2000,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K31">
-        <v>0.6363636363636364</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L31">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2116,21 +2026,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K32">
-        <v>0.625</v>
+        <v>0.6264705882352941</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2142,21 +2052,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>9</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K33">
-        <v>0.6071428571428571</v>
+        <v>0.625</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2168,21 +2078,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K34">
-        <v>0.602510460251046</v>
+        <v>0.62</v>
       </c>
       <c r="L34">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="M34">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2194,21 +2104,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>95</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K35">
         <v>0.6</v>
       </c>
       <c r="L35">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2220,21 +2130,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K36">
-        <v>0.5882352941176471</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L36">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="M36">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2246,21 +2156,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>140</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K37">
-        <v>0.5851063829787234</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L37">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M37">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2272,21 +2182,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K38">
-        <v>0.5652173913043478</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L38">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2298,21 +2208,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K39">
-        <v>0.5559322033898305</v>
+        <v>0.5661016949152542</v>
       </c>
       <c r="L39">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M39">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2324,15 +2234,15 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K40">
-        <v>0.5416666666666666</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L40">
         <v>13</v>
@@ -2350,21 +2260,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K41">
-        <v>0.5384615384615384</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="L41">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="M41">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2376,21 +2286,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K42">
-        <v>0.5185185185185185</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M42">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2402,21 +2312,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K43">
-        <v>0.5</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L43">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="M43">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2428,21 +2338,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K44">
-        <v>0.5</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M44">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2454,21 +2364,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K45">
-        <v>0.4848484848484849</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L45">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M45">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2480,21 +2390,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K46">
-        <v>0.4831460674157304</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L46">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="M46">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2506,47 +2416,47 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K47">
-        <v>0.4634146341463415</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="L47">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M47">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N47">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K48">
-        <v>0.4509803921568628</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="L48">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M48">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2563,16 +2473,16 @@
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K49">
-        <v>0.4411764705882353</v>
+        <v>0.3287671232876712</v>
       </c>
       <c r="L49">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M49">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2584,12 +2494,12 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K50">
         <v>0.3205128205128205</v>
@@ -2615,16 +2525,16 @@
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K51">
-        <v>0.3013698630136986</v>
+        <v>0.265625</v>
       </c>
       <c r="L51">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M51">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2636,21 +2546,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K52">
-        <v>0.2711864406779661</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L52">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2662,319 +2572,189 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K53">
-        <v>0.2083333333333333</v>
+        <v>0.01668056713928273</v>
       </c>
       <c r="L53">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M53">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>57</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K54">
-        <v>0.02380952380952381</v>
+        <v>0.01068510370835952</v>
       </c>
       <c r="L54">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M54">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N54">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="O54">
-        <v>0.06999999999999995</v>
+        <v>0.15</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>533</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K55">
-        <v>0.02335279399499583</v>
+        <v>0.007392197125256674</v>
       </c>
       <c r="L55">
+        <v>18</v>
+      </c>
+      <c r="M55">
         <v>28</v>
       </c>
-      <c r="M55">
-        <v>29</v>
-      </c>
       <c r="N55">
-        <v>0.97</v>
+        <v>0.64</v>
       </c>
       <c r="O55">
-        <v>0.03000000000000003</v>
+        <v>0.36</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>1171</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K56">
-        <v>0.01016419077404222</v>
+        <v>0.007132132132132132</v>
       </c>
       <c r="L56">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M56">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N56">
-        <v>0.57</v>
+        <v>0.68</v>
       </c>
       <c r="O56">
-        <v>0.43</v>
+        <v>0.32</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>1266</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="K57">
-        <v>0.009428032683846637</v>
+        <v>0.005441119315973571</v>
       </c>
       <c r="L57">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M57">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="N57">
-        <v>0.83</v>
+        <v>0.6</v>
       </c>
       <c r="O57">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>1576</v>
+        <v>5118</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="K58">
-        <v>0.009384384384384385</v>
+        <v>0.004172461752433936</v>
       </c>
       <c r="L58">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M58">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N58">
-        <v>0.74</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O58">
-        <v>0.26</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>2639</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K59">
-        <v>0.005751848808545604</v>
+        <v>0.004012841091492777</v>
       </c>
       <c r="L59">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M59">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N59">
-        <v>0.5600000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="O59">
-        <v>0.4399999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>2420</v>
-      </c>
-    </row>
-    <row r="60" spans="10:17">
-      <c r="J60" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K60">
-        <v>0.005432511491851233</v>
-      </c>
-      <c r="L60">
-        <v>13</v>
-      </c>
-      <c r="M60">
-        <v>14</v>
-      </c>
-      <c r="N60">
-        <v>0.93</v>
-      </c>
-      <c r="O60">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P60" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q60">
-        <v>2380</v>
-      </c>
-    </row>
-    <row r="61" spans="10:17">
-      <c r="J61" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K61">
-        <v>0.004705144291091593</v>
-      </c>
-      <c r="L61">
-        <v>15</v>
-      </c>
-      <c r="M61">
-        <v>28</v>
-      </c>
-      <c r="N61">
-        <v>0.54</v>
-      </c>
-      <c r="O61">
-        <v>0.46</v>
-      </c>
-      <c r="P61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61">
-        <v>3173</v>
-      </c>
-    </row>
-    <row r="62" spans="10:17">
-      <c r="J62" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K62">
-        <v>0.004640371229698376</v>
-      </c>
-      <c r="L62">
-        <v>20</v>
-      </c>
-      <c r="M62">
-        <v>38</v>
-      </c>
-      <c r="N62">
-        <v>0.53</v>
-      </c>
-      <c r="O62">
-        <v>0.47</v>
-      </c>
-      <c r="P62" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>4290</v>
-      </c>
-    </row>
-    <row r="63" spans="10:17">
-      <c r="J63" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K63">
-        <v>0.004623115577889447</v>
-      </c>
-      <c r="L63">
-        <v>23</v>
-      </c>
-      <c r="M63">
-        <v>44</v>
-      </c>
-      <c r="N63">
-        <v>0.52</v>
-      </c>
-      <c r="O63">
-        <v>0.48</v>
-      </c>
-      <c r="P63" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q63">
-        <v>4952</v>
-      </c>
-    </row>
-    <row r="64" spans="10:17">
-      <c r="J64" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K64">
-        <v>0.003700097370983447</v>
-      </c>
-      <c r="L64">
-        <v>19</v>
-      </c>
-      <c r="M64">
-        <v>49</v>
-      </c>
-      <c r="N64">
-        <v>0.39</v>
-      </c>
-      <c r="O64">
-        <v>0.61</v>
-      </c>
-      <c r="P64" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q64">
-        <v>5116</v>
+        <v>4964</v>
       </c>
     </row>
   </sheetData>
